--- a/ResultadoEleicoesDistritos/AVEIRO_MURTOSA.xlsx
+++ b/ResultadoEleicoesDistritos/AVEIRO_MURTOSA.xlsx
@@ -597,64 +597,64 @@
         <v>2975</v>
       </c>
       <c r="H2" t="n">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="I2" t="n">
-        <v>311</v>
+        <v>276</v>
       </c>
       <c r="J2" t="n">
-        <v>1220</v>
+        <v>1266</v>
       </c>
       <c r="K2" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="L2" t="n">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="M2" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N2" t="n">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2</v>
+      </c>
+      <c r="R2" t="n">
+        <v>19</v>
+      </c>
+      <c r="S2" t="n">
+        <v>123</v>
+      </c>
+      <c r="T2" t="n">
+        <v>191</v>
+      </c>
+      <c r="U2" t="n">
+        <v>13</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1886</v>
+      </c>
+      <c r="W2" t="n">
         <v>1</v>
       </c>
-      <c r="P2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R2" t="n">
-        <v>13</v>
-      </c>
-      <c r="S2" t="n">
-        <v>135</v>
-      </c>
-      <c r="T2" t="n">
-        <v>245</v>
-      </c>
-      <c r="U2" t="n">
+      <c r="X2" t="n">
+        <v>1927</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA2" t="n">
         <v>17</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1870</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1868</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
